--- a/BEXARbase/data/recorddata.xlsx
+++ b/BEXARbase/data/recorddata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B063F3B-D09B-4FDF-B264-F40B0578C606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64CE8C6-A53C-4B85-8304-4C70EC444860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="156" windowWidth="22692" windowHeight="10188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="K2">
-        <v>20230316230317</v>
+        <v>20230316234850</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -561,7 +561,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uvalVrswc03SAH3czC1KZYHrdUJlIpDo8E0Itf9+SAxtWEGCq3QfJZx/SIA7kqrPqyKmksPaqQRj2bT77/g6qQ==" saltValue="fg+5uSc7keU9U8m8A2IQyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tnUybXK2W/Dy1MC0YYFp+iRU2hJ1eS8E1RjwvtFuIvYkvVBxDcIGTemcV793KxyYXrPjG5AhPLDqE7nGMVpbfA==" saltValue="AoGHFat8/HohOpmNTj4DJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
